--- a/classification/droptc/modern-bert/unfreeze/67351593/prediction.xlsx
+++ b/classification/droptc/modern-bert/unfreeze/67351593/prediction.xlsx
@@ -490,7 +490,7 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.997061550617218</v>
+        <v>0.998412013053894</v>
       </c>
     </row>
     <row r="3">
@@ -518,7 +518,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9910876154899597</v>
+        <v>0.999479353427887</v>
       </c>
     </row>
     <row r="4">
@@ -546,7 +546,7 @@
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9984652996063232</v>
+        <v>0.9989557266235352</v>
       </c>
     </row>
     <row r="5">
@@ -562,19 +562,19 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E5" t="b">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9570990800857544</v>
+        <v>0.9677019715309143</v>
       </c>
     </row>
     <row r="6">
@@ -590,19 +590,19 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E6" t="b">
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9939244389533997</v>
+        <v>0.9998303651809692</v>
       </c>
     </row>
     <row r="7">
@@ -630,7 +630,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9990204572677612</v>
+        <v>0.9998117089271545</v>
       </c>
     </row>
     <row r="8">
@@ -646,19 +646,19 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9181445240974426</v>
+        <v>0.7523648142814636</v>
       </c>
     </row>
     <row r="9">
@@ -686,7 +686,7 @@
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9984336495399475</v>
+        <v>0.9995585083961487</v>
       </c>
     </row>
     <row r="10">
@@ -702,19 +702,19 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="E10" t="b">
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9995198249816895</v>
+        <v>0.9827102422714233</v>
       </c>
     </row>
     <row r="11">
@@ -742,7 +742,7 @@
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9988149404525757</v>
+        <v>0.9943812489509583</v>
       </c>
     </row>
     <row r="12">
@@ -758,19 +758,19 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E12" t="b">
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9928713440895081</v>
+        <v>0.6754586696624756</v>
       </c>
     </row>
     <row r="13">
@@ -798,7 +798,7 @@
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9994303584098816</v>
+        <v>0.9998257756233215</v>
       </c>
     </row>
     <row r="14">
@@ -826,7 +826,7 @@
         <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>0.999549925327301</v>
+        <v>0.999586284160614</v>
       </c>
     </row>
     <row r="15">
@@ -842,19 +842,19 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E15" t="b">
         <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9949731826782227</v>
+        <v>0.9980424642562866</v>
       </c>
     </row>
     <row r="16">
@@ -870,19 +870,19 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9873144030570984</v>
+        <v>0.9993308782577515</v>
       </c>
     </row>
     <row r="17">
@@ -910,7 +910,7 @@
         <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9984336495399475</v>
+        <v>0.9997404217720032</v>
       </c>
     </row>
     <row r="18">
@@ -926,19 +926,19 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E18" t="b">
         <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9963410496711731</v>
+        <v>0.587163507938385</v>
       </c>
     </row>
     <row r="19">
@@ -954,19 +954,19 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="E19" t="b">
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0.999131977558136</v>
+        <v>0.967560350894928</v>
       </c>
     </row>
     <row r="20">
@@ -994,7 +994,7 @@
         <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9990204572677612</v>
+        <v>0.9997901320457458</v>
       </c>
     </row>
     <row r="21">
@@ -1022,7 +1022,7 @@
         <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9995124340057373</v>
+        <v>0.999544084072113</v>
       </c>
     </row>
     <row r="22">
@@ -1038,19 +1038,19 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E22" t="b">
         <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9970101118087769</v>
+        <v>0.998711109161377</v>
       </c>
     </row>
     <row r="23">
@@ -1066,19 +1066,19 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E23" t="b">
         <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9974910020828247</v>
+        <v>0.9951613545417786</v>
       </c>
     </row>
     <row r="24">
@@ -1106,7 +1106,7 @@
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9987140893936157</v>
+        <v>0.9993926286697388</v>
       </c>
     </row>
     <row r="25">
@@ -1122,19 +1122,19 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E25" t="b">
         <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9934061765670776</v>
+        <v>0.9998086094856262</v>
       </c>
     </row>
     <row r="26">
@@ -1150,19 +1150,19 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9949731826782227</v>
+        <v>0.9857165813446045</v>
       </c>
     </row>
     <row r="27">
@@ -1190,7 +1190,7 @@
         <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>0.9994596838951111</v>
+        <v>0.999356210231781</v>
       </c>
     </row>
     <row r="28">
@@ -1218,7 +1218,7 @@
         <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>0.9996664524078369</v>
+        <v>0.9998296499252319</v>
       </c>
     </row>
     <row r="29">
@@ -1246,7 +1246,7 @@
         <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>0.9994581341743469</v>
+        <v>0.9996635913848877</v>
       </c>
     </row>
     <row r="30">
@@ -1262,19 +1262,19 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E30" t="b">
         <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>0.6944608688354492</v>
+        <v>0.9997820258140564</v>
       </c>
     </row>
     <row r="31">
@@ -1302,7 +1302,7 @@
         <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>0.9992275238037109</v>
+        <v>0.9998041987419128</v>
       </c>
     </row>
     <row r="32">
@@ -1330,7 +1330,7 @@
         <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>0.9996349811553955</v>
+        <v>0.9996727705001831</v>
       </c>
     </row>
     <row r="33">
@@ -1358,7 +1358,7 @@
         <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>0.9996324777603149</v>
+        <v>0.9995966553688049</v>
       </c>
     </row>
     <row r="34">
@@ -1374,19 +1374,19 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0.9990204572677612</v>
+        <v>0.5661375522613525</v>
       </c>
     </row>
     <row r="35">
@@ -1402,19 +1402,19 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E35" t="b">
         <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>0.9990204572677612</v>
+        <v>0.9820458292961121</v>
       </c>
     </row>
     <row r="36">
@@ -1442,7 +1442,7 @@
         <v>1</v>
       </c>
       <c r="F36" t="n">
-        <v>0.9990025162696838</v>
+        <v>0.9998001456260681</v>
       </c>
     </row>
     <row r="37">
@@ -1458,19 +1458,19 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E37" t="b">
         <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>0.9776734113693237</v>
+        <v>0.9975152015686035</v>
       </c>
     </row>
     <row r="38">
@@ -1486,7 +1486,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1495,10 +1495,10 @@
         </is>
       </c>
       <c r="E38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>0.9994096755981445</v>
+        <v>0.9996993541717529</v>
       </c>
     </row>
     <row r="39">
@@ -1526,7 +1526,7 @@
         <v>1</v>
       </c>
       <c r="F39" t="n">
-        <v>0.9809131026268005</v>
+        <v>0.9998236298561096</v>
       </c>
     </row>
     <row r="40">
@@ -1542,19 +1542,19 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E40" t="b">
         <v>1</v>
       </c>
       <c r="F40" t="n">
-        <v>0.9991083741188049</v>
+        <v>0.9984253644943237</v>
       </c>
     </row>
     <row r="41">
@@ -1570,19 +1570,19 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E41" t="b">
         <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>0.9918568134307861</v>
+        <v>0.9980833530426025</v>
       </c>
     </row>
     <row r="42">
@@ -1598,19 +1598,19 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E42" t="b">
         <v>1</v>
       </c>
       <c r="F42" t="n">
-        <v>0.9859583973884583</v>
+        <v>0.9919661283493042</v>
       </c>
     </row>
     <row r="43">
@@ -1638,7 +1638,7 @@
         <v>1</v>
       </c>
       <c r="F43" t="n">
-        <v>0.9993770718574524</v>
+        <v>0.9997476935386658</v>
       </c>
     </row>
     <row r="44">
@@ -1654,19 +1654,19 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F44" t="n">
-        <v>0.9872838258743286</v>
+        <v>0.9933884143829346</v>
       </c>
     </row>
     <row r="45">
@@ -1694,7 +1694,7 @@
         <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>0.9974574446678162</v>
+        <v>0.9996030926704407</v>
       </c>
     </row>
     <row r="46">
@@ -1722,7 +1722,7 @@
         <v>1</v>
       </c>
       <c r="F46" t="n">
-        <v>0.9995655417442322</v>
+        <v>0.9998244643211365</v>
       </c>
     </row>
     <row r="47">
@@ -1738,19 +1738,19 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>0.9985833168029785</v>
+        <v>0.4522565305233002</v>
       </c>
     </row>
     <row r="48">
@@ -1766,19 +1766,19 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E48" t="b">
         <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>0.9995443224906921</v>
+        <v>0.9904374480247498</v>
       </c>
     </row>
     <row r="49">
@@ -1794,19 +1794,19 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E49" t="b">
         <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>0.9962546825408936</v>
+        <v>0.9997149109840393</v>
       </c>
     </row>
     <row r="50">
@@ -1834,7 +1834,7 @@
         <v>1</v>
       </c>
       <c r="F50" t="n">
-        <v>0.9991341233253479</v>
+        <v>0.9995585083961487</v>
       </c>
     </row>
     <row r="51">
@@ -1862,7 +1862,7 @@
         <v>1</v>
       </c>
       <c r="F51" t="n">
-        <v>0.9975422620773315</v>
+        <v>0.9995694756507874</v>
       </c>
     </row>
     <row r="52">
@@ -1878,19 +1878,19 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E52" t="b">
         <v>1</v>
       </c>
       <c r="F52" t="n">
-        <v>0.9995835423469543</v>
+        <v>0.9975476861000061</v>
       </c>
     </row>
     <row r="53">
@@ -1906,19 +1906,19 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E53" t="b">
         <v>1</v>
       </c>
       <c r="F53" t="n">
-        <v>0.903842568397522</v>
+        <v>0.9997699856758118</v>
       </c>
     </row>
     <row r="54">
@@ -1934,19 +1934,19 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E54" t="b">
         <v>1</v>
       </c>
       <c r="F54" t="n">
-        <v>0.9993748068809509</v>
+        <v>0.9975476861000061</v>
       </c>
     </row>
     <row r="55">
@@ -1962,19 +1962,19 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E55" t="b">
         <v>1</v>
       </c>
       <c r="F55" t="n">
-        <v>0.9887545108795166</v>
+        <v>0.9997667670249939</v>
       </c>
     </row>
     <row r="56">
@@ -1990,19 +1990,19 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E56" t="b">
         <v>1</v>
       </c>
       <c r="F56" t="n">
-        <v>0.9972475171089172</v>
+        <v>0.9967507123947144</v>
       </c>
     </row>
     <row r="57">
@@ -2018,19 +2018,19 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E57" t="b">
         <v>1</v>
       </c>
       <c r="F57" t="n">
-        <v>0.9992499947547913</v>
+        <v>0.9984777569770813</v>
       </c>
     </row>
     <row r="58">
@@ -2046,7 +2046,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2055,10 +2055,10 @@
         </is>
       </c>
       <c r="E58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F58" t="n">
-        <v>0.9867495894432068</v>
+        <v>0.9979343414306641</v>
       </c>
     </row>
     <row r="59">
@@ -2086,7 +2086,7 @@
         <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>0.9994412064552307</v>
+        <v>0.9997926354408264</v>
       </c>
     </row>
     <row r="60">
@@ -2102,19 +2102,19 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E60" t="b">
         <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>0.9949731826782227</v>
+        <v>0.9997832179069519</v>
       </c>
     </row>
     <row r="61">
@@ -2130,19 +2130,19 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F61" t="n">
-        <v>0.8652545213699341</v>
+        <v>0.9975875616073608</v>
       </c>
     </row>
     <row r="62">
@@ -2170,7 +2170,7 @@
         <v>1</v>
       </c>
       <c r="F62" t="n">
-        <v>0.9960489869117737</v>
+        <v>0.9995943903923035</v>
       </c>
     </row>
     <row r="63">
@@ -2186,19 +2186,19 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E63" t="b">
         <v>1</v>
       </c>
       <c r="F63" t="n">
-        <v>0.999497652053833</v>
+        <v>0.9974575638771057</v>
       </c>
     </row>
     <row r="64">
@@ -2214,19 +2214,19 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E64" t="b">
         <v>1</v>
       </c>
       <c r="F64" t="n">
-        <v>0.9994581341743469</v>
+        <v>0.9982561469078064</v>
       </c>
     </row>
     <row r="65">
@@ -2242,19 +2242,19 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E65" t="b">
         <v>1</v>
       </c>
       <c r="F65" t="n">
-        <v>0.9973633885383606</v>
+        <v>0.9997262358665466</v>
       </c>
     </row>
     <row r="66">
@@ -2270,19 +2270,19 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E66" t="b">
         <v>1</v>
       </c>
       <c r="F66" t="n">
-        <v>0.9990204572677612</v>
+        <v>0.9913387298583984</v>
       </c>
     </row>
     <row r="67">
@@ -2310,7 +2310,7 @@
         <v>1</v>
       </c>
       <c r="F67" t="n">
-        <v>0.9990204572677612</v>
+        <v>0.9997588992118835</v>
       </c>
     </row>
     <row r="68">
@@ -2326,19 +2326,19 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E68" t="b">
         <v>1</v>
       </c>
       <c r="F68" t="n">
-        <v>0.992095947265625</v>
+        <v>0.9997240900993347</v>
       </c>
     </row>
     <row r="69">
@@ -2366,7 +2366,7 @@
         <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>0.9993997812271118</v>
+        <v>0.9994391798973083</v>
       </c>
     </row>
     <row r="70">
@@ -2394,7 +2394,7 @@
         <v>1</v>
       </c>
       <c r="F70" t="n">
-        <v>0.999744713306427</v>
+        <v>0.9998823404312134</v>
       </c>
     </row>
     <row r="71">
@@ -2415,14 +2415,14 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>0.9984064698219299</v>
+        <v>0.6595054268836975</v>
       </c>
     </row>
     <row r="72">
@@ -2438,19 +2438,19 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E72" t="b">
         <v>1</v>
       </c>
       <c r="F72" t="n">
-        <v>0.790468156337738</v>
+        <v>0.9979293346405029</v>
       </c>
     </row>
     <row r="73">
@@ -2478,7 +2478,7 @@
         <v>1</v>
       </c>
       <c r="F73" t="n">
-        <v>0.9995686411857605</v>
+        <v>0.9998536109924316</v>
       </c>
     </row>
     <row r="74">
@@ -2494,19 +2494,19 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E74" t="b">
         <v>1</v>
       </c>
       <c r="F74" t="n">
-        <v>0.9743902087211609</v>
+        <v>0.9997965693473816</v>
       </c>
     </row>
     <row r="75">
@@ -2522,19 +2522,19 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E75" t="b">
         <v>1</v>
       </c>
       <c r="F75" t="n">
-        <v>0.9997389912605286</v>
+        <v>0.995334804058075</v>
       </c>
     </row>
     <row r="76">
@@ -2562,7 +2562,7 @@
         <v>1</v>
       </c>
       <c r="F76" t="n">
-        <v>0.9996485710144043</v>
+        <v>0.9988357424736023</v>
       </c>
     </row>
     <row r="77">
@@ -2590,7 +2590,7 @@
         <v>1</v>
       </c>
       <c r="F77" t="n">
-        <v>0.9996511936187744</v>
+        <v>0.9995415210723877</v>
       </c>
     </row>
     <row r="78">
@@ -2618,7 +2618,7 @@
         <v>1</v>
       </c>
       <c r="F78" t="n">
-        <v>0.9995107650756836</v>
+        <v>0.9994503855705261</v>
       </c>
     </row>
     <row r="79">
@@ -2634,19 +2634,19 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E79" t="b">
         <v>1</v>
       </c>
       <c r="F79" t="n">
-        <v>0.9996621608734131</v>
+        <v>0.997826874256134</v>
       </c>
     </row>
     <row r="80">
@@ -2662,19 +2662,19 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E80" t="b">
         <v>1</v>
       </c>
       <c r="F80" t="n">
-        <v>0.998638927936554</v>
+        <v>0.9957271814346313</v>
       </c>
     </row>
     <row r="81">
@@ -2702,7 +2702,7 @@
         <v>1</v>
       </c>
       <c r="F81" t="n">
-        <v>0.9996592998504639</v>
+        <v>0.9995585083961487</v>
       </c>
     </row>
     <row r="82">
@@ -2730,7 +2730,7 @@
         <v>1</v>
       </c>
       <c r="F82" t="n">
-        <v>0.9992644190788269</v>
+        <v>0.9998119473457336</v>
       </c>
     </row>
     <row r="83">
@@ -2746,19 +2746,19 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E83" t="b">
         <v>1</v>
       </c>
       <c r="F83" t="n">
-        <v>0.9943060278892517</v>
+        <v>0.9995585083961487</v>
       </c>
     </row>
     <row r="84">
@@ -2786,7 +2786,7 @@
         <v>1</v>
       </c>
       <c r="F84" t="n">
-        <v>0.7194747924804688</v>
+        <v>0.9995601773262024</v>
       </c>
     </row>
     <row r="85">
@@ -2802,19 +2802,19 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E85" t="b">
         <v>1</v>
       </c>
       <c r="F85" t="n">
-        <v>0.9966084957122803</v>
+        <v>0.9998180270195007</v>
       </c>
     </row>
     <row r="86">
@@ -2842,7 +2842,7 @@
         <v>1</v>
       </c>
       <c r="F86" t="n">
-        <v>0.9986987113952637</v>
+        <v>0.9997617602348328</v>
       </c>
     </row>
     <row r="87">
@@ -2858,19 +2858,19 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E87" t="b">
         <v>1</v>
       </c>
       <c r="F87" t="n">
-        <v>0.9880096316337585</v>
+        <v>0.9997182488441467</v>
       </c>
     </row>
     <row r="88">
@@ -2886,19 +2886,19 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E88" t="b">
         <v>1</v>
       </c>
       <c r="F88" t="n">
-        <v>0.9977138042449951</v>
+        <v>0.998807430267334</v>
       </c>
     </row>
     <row r="89">
@@ -2914,19 +2914,19 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="E89" t="b">
         <v>1</v>
       </c>
       <c r="F89" t="n">
-        <v>0.9976167678833008</v>
+        <v>0.9692775011062622</v>
       </c>
     </row>
     <row r="90">
@@ -2942,19 +2942,19 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E90" t="b">
         <v>1</v>
       </c>
       <c r="F90" t="n">
-        <v>0.9990204572677612</v>
+        <v>0.6860030889511108</v>
       </c>
     </row>
     <row r="91">
@@ -2982,7 +2982,7 @@
         <v>1</v>
       </c>
       <c r="F91" t="n">
-        <v>0.9997534155845642</v>
+        <v>0.9996936321258545</v>
       </c>
     </row>
     <row r="92">
@@ -2998,19 +2998,19 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E92" t="b">
         <v>1</v>
       </c>
       <c r="F92" t="n">
-        <v>0.9516574144363403</v>
+        <v>0.9998407363891602</v>
       </c>
     </row>
     <row r="93">
@@ -3026,19 +3026,19 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E93" t="b">
         <v>1</v>
       </c>
       <c r="F93" t="n">
-        <v>0.9992561936378479</v>
+        <v>0.995120108127594</v>
       </c>
     </row>
     <row r="94">
@@ -3054,19 +3054,19 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E94" t="b">
         <v>1</v>
       </c>
       <c r="F94" t="n">
-        <v>0.999667763710022</v>
+        <v>0.9982258677482605</v>
       </c>
     </row>
     <row r="95">
@@ -3094,7 +3094,7 @@
         <v>1</v>
       </c>
       <c r="F95" t="n">
-        <v>0.9993925094604492</v>
+        <v>0.9997944235801697</v>
       </c>
     </row>
     <row r="96">
@@ -3110,19 +3110,19 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
+          <t>SurroundingEnvironment</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
           <t>HardwareFault</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>HardwareFault</t>
-        </is>
-      </c>
       <c r="E96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F96" t="n">
-        <v>0.997852087020874</v>
+        <v>0.8745381236076355</v>
       </c>
     </row>
     <row r="97">
@@ -3138,19 +3138,19 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E97" t="b">
         <v>1</v>
       </c>
       <c r="F97" t="n">
-        <v>0.998254120349884</v>
+        <v>0.9978606104850769</v>
       </c>
     </row>
     <row r="98">
@@ -3166,7 +3166,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -3175,10 +3175,10 @@
         </is>
       </c>
       <c r="E98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F98" t="n">
-        <v>0.9992275238037109</v>
+        <v>0.999743640422821</v>
       </c>
     </row>
     <row r="99">
@@ -3206,7 +3206,7 @@
         <v>1</v>
       </c>
       <c r="F99" t="n">
-        <v>0.9990108013153076</v>
+        <v>0.9995585083961487</v>
       </c>
     </row>
     <row r="100">
@@ -3234,7 +3234,7 @@
         <v>1</v>
       </c>
       <c r="F100" t="n">
-        <v>0.9996145963668823</v>
+        <v>0.9996616840362549</v>
       </c>
     </row>
     <row r="101">
@@ -3250,19 +3250,19 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F101" t="n">
-        <v>0.9855490326881409</v>
+        <v>0.9997628331184387</v>
       </c>
     </row>
     <row r="102">
@@ -3283,14 +3283,14 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E102" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F102" t="n">
-        <v>0.9995949864387512</v>
+        <v>0.4974475800991058</v>
       </c>
     </row>
     <row r="103">
@@ -3306,19 +3306,19 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E103" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F103" t="n">
-        <v>0.8386087417602539</v>
+        <v>0.9975503087043762</v>
       </c>
     </row>
     <row r="104">
@@ -3334,19 +3334,19 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E104" t="b">
         <v>1</v>
       </c>
       <c r="F104" t="n">
-        <v>0.9991567134857178</v>
+        <v>0.9976479411125183</v>
       </c>
     </row>
     <row r="105">
@@ -3374,7 +3374,7 @@
         <v>1</v>
       </c>
       <c r="F105" t="n">
-        <v>0.9993785619735718</v>
+        <v>0.9997660517692566</v>
       </c>
     </row>
     <row r="106">
@@ -3390,19 +3390,19 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E106" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F106" t="n">
-        <v>0.999542236328125</v>
+        <v>0.8488726019859314</v>
       </c>
     </row>
     <row r="107">
@@ -3430,7 +3430,7 @@
         <v>1</v>
       </c>
       <c r="F107" t="n">
-        <v>0.9989199638366699</v>
+        <v>0.9997912049293518</v>
       </c>
     </row>
     <row r="108">
@@ -3446,19 +3446,19 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E108" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F108" t="n">
-        <v>0.9953280687332153</v>
+        <v>0.8378355503082275</v>
       </c>
     </row>
     <row r="109">
@@ -3474,19 +3474,19 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E109" t="b">
         <v>1</v>
       </c>
       <c r="F109" t="n">
-        <v>0.9962546825408936</v>
+        <v>0.9938691854476929</v>
       </c>
     </row>
     <row r="110">
@@ -3502,19 +3502,19 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E110" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F110" t="n">
-        <v>0.5939919352531433</v>
+        <v>0.9996635913848877</v>
       </c>
     </row>
     <row r="111">
@@ -3542,7 +3542,7 @@
         <v>1</v>
       </c>
       <c r="F111" t="n">
-        <v>0.9992024302482605</v>
+        <v>0.999757707118988</v>
       </c>
     </row>
     <row r="112">
@@ -3558,19 +3558,19 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E112" t="b">
         <v>1</v>
       </c>
       <c r="F112" t="n">
-        <v>0.9974080920219421</v>
+        <v>0.9996999502182007</v>
       </c>
     </row>
     <row r="113">
@@ -3586,19 +3586,19 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E113" t="b">
         <v>1</v>
       </c>
       <c r="F113" t="n">
-        <v>0.5989456176757812</v>
+        <v>0.9998028874397278</v>
       </c>
     </row>
     <row r="114">
@@ -3614,19 +3614,19 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E114" t="b">
         <v>1</v>
       </c>
       <c r="F114" t="n">
-        <v>0.9861441850662231</v>
+        <v>0.9997901320457458</v>
       </c>
     </row>
     <row r="115">
@@ -3642,7 +3642,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -3651,10 +3651,10 @@
         </is>
       </c>
       <c r="E115" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F115" t="n">
-        <v>0.9990204572677612</v>
+        <v>0.832740843296051</v>
       </c>
     </row>
     <row r="116">
@@ -3682,7 +3682,7 @@
         <v>1</v>
       </c>
       <c r="F116" t="n">
-        <v>0.9994214773178101</v>
+        <v>0.9998806715011597</v>
       </c>
     </row>
     <row r="117">
@@ -3710,7 +3710,7 @@
         <v>1</v>
       </c>
       <c r="F117" t="n">
-        <v>0.9994807839393616</v>
+        <v>0.9996974468231201</v>
       </c>
     </row>
     <row r="118">
@@ -3726,19 +3726,19 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E118" t="b">
         <v>1</v>
       </c>
       <c r="F118" t="n">
-        <v>0.982266366481781</v>
+        <v>0.999440610408783</v>
       </c>
     </row>
     <row r="119">
@@ -3754,19 +3754,19 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E119" t="b">
         <v>1</v>
       </c>
       <c r="F119" t="n">
-        <v>0.9931011199951172</v>
+        <v>0.9995585083961487</v>
       </c>
     </row>
     <row r="120">
@@ -3794,7 +3794,7 @@
         <v>1</v>
       </c>
       <c r="F120" t="n">
-        <v>0.9992783665657043</v>
+        <v>0.9997567534446716</v>
       </c>
     </row>
     <row r="121">
@@ -3822,7 +3822,7 @@
         <v>1</v>
       </c>
       <c r="F121" t="n">
-        <v>0.9996438026428223</v>
+        <v>0.9998260140419006</v>
       </c>
     </row>
     <row r="122">
@@ -3850,7 +3850,7 @@
         <v>1</v>
       </c>
       <c r="F122" t="n">
-        <v>0.9190529584884644</v>
+        <v>0.9974729418754578</v>
       </c>
     </row>
     <row r="123">
@@ -3866,19 +3866,19 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E123" t="b">
         <v>1</v>
       </c>
       <c r="F123" t="n">
-        <v>0.9988692402839661</v>
+        <v>0.9890121221542358</v>
       </c>
     </row>
     <row r="124">
@@ -3894,19 +3894,19 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E124" t="b">
         <v>1</v>
       </c>
       <c r="F124" t="n">
-        <v>0.9993941783905029</v>
+        <v>0.9444288611412048</v>
       </c>
     </row>
     <row r="125">
@@ -3934,7 +3934,7 @@
         <v>1</v>
       </c>
       <c r="F125" t="n">
-        <v>0.9955050349235535</v>
+        <v>0.6235536932945251</v>
       </c>
     </row>
     <row r="126">
@@ -3955,14 +3955,14 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E126" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F126" t="n">
-        <v>0.5909187197685242</v>
+        <v>0.9998736381530762</v>
       </c>
     </row>
     <row r="127">
@@ -3978,19 +3978,19 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E127" t="b">
         <v>1</v>
       </c>
       <c r="F127" t="n">
-        <v>0.9976167678833008</v>
+        <v>0.9988297820091248</v>
       </c>
     </row>
     <row r="128">
@@ -4018,7 +4018,7 @@
         <v>1</v>
       </c>
       <c r="F128" t="n">
-        <v>0.9996528625488281</v>
+        <v>0.9596803188323975</v>
       </c>
     </row>
     <row r="129">
@@ -4046,7 +4046,7 @@
         <v>1</v>
       </c>
       <c r="F129" t="n">
-        <v>0.9948849081993103</v>
+        <v>0.9965750575065613</v>
       </c>
     </row>
     <row r="130">
@@ -4062,19 +4062,19 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E130" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F130" t="n">
-        <v>0.9724117517471313</v>
+        <v>0.9967507123947144</v>
       </c>
     </row>
     <row r="131">
@@ -4090,19 +4090,19 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E131" t="b">
         <v>1</v>
       </c>
       <c r="F131" t="n">
-        <v>0.9908883571624756</v>
+        <v>0.9960277080535889</v>
       </c>
     </row>
     <row r="132">
@@ -4130,7 +4130,7 @@
         <v>1</v>
       </c>
       <c r="F132" t="n">
-        <v>0.9994532465934753</v>
+        <v>0.999744713306427</v>
       </c>
     </row>
     <row r="133">
@@ -4146,19 +4146,19 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E133" t="b">
         <v>1</v>
       </c>
       <c r="F133" t="n">
-        <v>0.9994596838951111</v>
+        <v>0.6121723055839539</v>
       </c>
     </row>
     <row r="134">
@@ -4174,19 +4174,19 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E134" t="b">
         <v>1</v>
       </c>
       <c r="F134" t="n">
-        <v>0.9969479441642761</v>
+        <v>0.9983225464820862</v>
       </c>
     </row>
     <row r="135">
@@ -4214,7 +4214,7 @@
         <v>1</v>
       </c>
       <c r="F135" t="n">
-        <v>0.9995620846748352</v>
+        <v>0.9997274279594421</v>
       </c>
     </row>
     <row r="136">
@@ -4242,7 +4242,7 @@
         <v>1</v>
       </c>
       <c r="F136" t="n">
-        <v>0.9908883571624756</v>
+        <v>0.9982605576515198</v>
       </c>
     </row>
     <row r="137">
@@ -4258,19 +4258,19 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E137" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F137" t="n">
-        <v>0.9795237183570862</v>
+        <v>0.9997108578681946</v>
       </c>
     </row>
     <row r="138">
@@ -4286,7 +4286,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -4295,10 +4295,10 @@
         </is>
       </c>
       <c r="E138" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F138" t="n">
-        <v>0.989354133605957</v>
+        <v>0.9991057515144348</v>
       </c>
     </row>
     <row r="139">
@@ -4326,7 +4326,7 @@
         <v>1</v>
       </c>
       <c r="F139" t="n">
-        <v>0.9994843006134033</v>
+        <v>0.9997352957725525</v>
       </c>
     </row>
     <row r="140">
@@ -4342,19 +4342,19 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E140" t="b">
         <v>1</v>
       </c>
       <c r="F140" t="n">
-        <v>0.9918374419212341</v>
+        <v>0.9977049231529236</v>
       </c>
     </row>
     <row r="141">
@@ -4382,7 +4382,7 @@
         <v>1</v>
       </c>
       <c r="F141" t="n">
-        <v>0.9996356964111328</v>
+        <v>0.9986633062362671</v>
       </c>
     </row>
     <row r="142">
@@ -4410,7 +4410,7 @@
         <v>1</v>
       </c>
       <c r="F142" t="n">
-        <v>0.9987685084342957</v>
+        <v>0.9970490336418152</v>
       </c>
     </row>
     <row r="143">
@@ -4426,7 +4426,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -4435,10 +4435,10 @@
         </is>
       </c>
       <c r="E143" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F143" t="n">
-        <v>0.9350318312644958</v>
+        <v>0.9997699856758118</v>
       </c>
     </row>
     <row r="144">
@@ -4466,7 +4466,7 @@
         <v>1</v>
       </c>
       <c r="F144" t="n">
-        <v>0.9995872378349304</v>
+        <v>0.9998382329940796</v>
       </c>
     </row>
     <row r="145">
@@ -4482,19 +4482,19 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E145" t="b">
         <v>1</v>
       </c>
       <c r="F145" t="n">
-        <v>0.997158408164978</v>
+        <v>0.9998294115066528</v>
       </c>
     </row>
     <row r="146">
@@ -4515,14 +4515,14 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E146" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F146" t="n">
-        <v>0.9001873135566711</v>
+        <v>0.9996142387390137</v>
       </c>
     </row>
     <row r="147">
@@ -4538,19 +4538,19 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E147" t="b">
         <v>1</v>
       </c>
       <c r="F147" t="n">
-        <v>0.9974632263183594</v>
+        <v>0.9997166991233826</v>
       </c>
     </row>
     <row r="148">
@@ -4566,19 +4566,19 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E148" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F148" t="n">
-        <v>0.9723066687583923</v>
+        <v>0.999834418296814</v>
       </c>
     </row>
     <row r="149">
@@ -4606,7 +4606,7 @@
         <v>1</v>
       </c>
       <c r="F149" t="n">
-        <v>0.9990204572677612</v>
+        <v>0.9998524188995361</v>
       </c>
     </row>
     <row r="150">
@@ -4622,19 +4622,19 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E150" t="b">
         <v>1</v>
       </c>
       <c r="F150" t="n">
-        <v>0.9966509938240051</v>
+        <v>0.9995585083961487</v>
       </c>
     </row>
     <row r="151">
@@ -4662,7 +4662,7 @@
         <v>1</v>
       </c>
       <c r="F151" t="n">
-        <v>0.9992923736572266</v>
+        <v>0.9995762705802917</v>
       </c>
     </row>
     <row r="152">
@@ -4678,19 +4678,19 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E152" t="b">
         <v>1</v>
       </c>
       <c r="F152" t="n">
-        <v>0.9997037053108215</v>
+        <v>0.9933884143829346</v>
       </c>
     </row>
     <row r="153">
@@ -4718,7 +4718,7 @@
         <v>1</v>
       </c>
       <c r="F153" t="n">
-        <v>0.9996525049209595</v>
+        <v>0.9997696280479431</v>
       </c>
     </row>
     <row r="154">
@@ -4746,7 +4746,7 @@
         <v>1</v>
       </c>
       <c r="F154" t="n">
-        <v>0.8650088906288147</v>
+        <v>0.9997634291648865</v>
       </c>
     </row>
     <row r="155">
@@ -4762,19 +4762,19 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E155" t="b">
         <v>1</v>
       </c>
       <c r="F155" t="n">
-        <v>0.8608645796775818</v>
+        <v>0.9996984004974365</v>
       </c>
     </row>
     <row r="156">
@@ -4802,7 +4802,7 @@
         <v>1</v>
       </c>
       <c r="F156" t="n">
-        <v>0.9787524342536926</v>
+        <v>0.9997928738594055</v>
       </c>
     </row>
     <row r="157">
@@ -4818,19 +4818,19 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E157" t="b">
         <v>1</v>
       </c>
       <c r="F157" t="n">
-        <v>0.9996296167373657</v>
+        <v>0.9984777569770813</v>
       </c>
     </row>
     <row r="158">
@@ -4846,19 +4846,19 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E158" t="b">
         <v>1</v>
       </c>
       <c r="F158" t="n">
-        <v>0.9930214285850525</v>
+        <v>0.9979621171951294</v>
       </c>
     </row>
     <row r="159">
@@ -4886,7 +4886,7 @@
         <v>1</v>
       </c>
       <c r="F159" t="n">
-        <v>0.9954148530960083</v>
+        <v>0.9960277080535889</v>
       </c>
     </row>
     <row r="160">
@@ -4914,7 +4914,7 @@
         <v>1</v>
       </c>
       <c r="F160" t="n">
-        <v>0.999273955821991</v>
+        <v>0.9998151659965515</v>
       </c>
     </row>
     <row r="161">
@@ -4930,19 +4930,19 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="E161" t="b">
         <v>1</v>
       </c>
       <c r="F161" t="n">
-        <v>0.9993889331817627</v>
+        <v>0.9732831716537476</v>
       </c>
     </row>
     <row r="162">
@@ -4970,7 +4970,7 @@
         <v>1</v>
       </c>
       <c r="F162" t="n">
-        <v>0.9993687272071838</v>
+        <v>0.9995585083961487</v>
       </c>
     </row>
     <row r="163">
@@ -4998,7 +4998,7 @@
         <v>1</v>
       </c>
       <c r="F163" t="n">
-        <v>0.9989743232727051</v>
+        <v>0.9994341731071472</v>
       </c>
     </row>
     <row r="164">
@@ -5026,7 +5026,7 @@
         <v>1</v>
       </c>
       <c r="F164" t="n">
-        <v>0.9995142221450806</v>
+        <v>0.9997960925102234</v>
       </c>
     </row>
     <row r="165">
@@ -5042,19 +5042,19 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E165" t="b">
         <v>1</v>
       </c>
       <c r="F165" t="n">
-        <v>0.995923638343811</v>
+        <v>0.9996728897094727</v>
       </c>
     </row>
     <row r="166">
@@ -5082,7 +5082,7 @@
         <v>1</v>
       </c>
       <c r="F166" t="n">
-        <v>0.9991692304611206</v>
+        <v>0.9995600581169128</v>
       </c>
     </row>
     <row r="167">
@@ -5098,19 +5098,19 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E167" t="b">
         <v>1</v>
       </c>
       <c r="F167" t="n">
-        <v>0.9996353387832642</v>
+        <v>0.9944344162940979</v>
       </c>
     </row>
     <row r="168">
@@ -5126,19 +5126,19 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E168" t="b">
         <v>1</v>
       </c>
       <c r="F168" t="n">
-        <v>0.9827749133110046</v>
+        <v>0.9994489550590515</v>
       </c>
     </row>
     <row r="169">
@@ -5154,19 +5154,19 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E169" t="b">
         <v>1</v>
       </c>
       <c r="F169" t="n">
-        <v>0.9987828135490417</v>
+        <v>0.9982605576515198</v>
       </c>
     </row>
     <row r="170">
@@ -5182,19 +5182,19 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E170" t="b">
         <v>1</v>
       </c>
       <c r="F170" t="n">
-        <v>0.9873144030570984</v>
+        <v>0.9997581839561462</v>
       </c>
     </row>
     <row r="171">
@@ -5222,7 +5222,7 @@
         <v>1</v>
       </c>
       <c r="F171" t="n">
-        <v>0.9793662428855896</v>
+        <v>0.9996652603149414</v>
       </c>
     </row>
     <row r="172">
@@ -5250,7 +5250,7 @@
         <v>1</v>
       </c>
       <c r="F172" t="n">
-        <v>0.999054491519928</v>
+        <v>0.9995731711387634</v>
       </c>
     </row>
     <row r="173">
@@ -5266,19 +5266,19 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E173" t="b">
         <v>1</v>
       </c>
       <c r="F173" t="n">
-        <v>0.9640921354293823</v>
+        <v>0.9980833530426025</v>
       </c>
     </row>
     <row r="174">
@@ -5294,19 +5294,19 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E174" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F174" t="n">
-        <v>0.9994195699691772</v>
+        <v>0.9780997633934021</v>
       </c>
     </row>
     <row r="175">
@@ -5334,7 +5334,7 @@
         <v>1</v>
       </c>
       <c r="F175" t="n">
-        <v>0.9963099360466003</v>
+        <v>0.9994034767150879</v>
       </c>
     </row>
     <row r="176">
@@ -5350,19 +5350,19 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E176" t="b">
         <v>1</v>
       </c>
       <c r="F176" t="n">
-        <v>0.8125146627426147</v>
+        <v>0.9993200302124023</v>
       </c>
     </row>
     <row r="177">
@@ -5390,7 +5390,7 @@
         <v>1</v>
       </c>
       <c r="F177" t="n">
-        <v>0.9993624091148376</v>
+        <v>0.9532164335250854</v>
       </c>
     </row>
     <row r="178">
@@ -5418,7 +5418,7 @@
         <v>1</v>
       </c>
       <c r="F178" t="n">
-        <v>0.999131977558136</v>
+        <v>0.9996453523635864</v>
       </c>
     </row>
     <row r="179">
@@ -5446,7 +5446,7 @@
         <v>1</v>
       </c>
       <c r="F179" t="n">
-        <v>0.9989110231399536</v>
+        <v>0.999823272228241</v>
       </c>
     </row>
     <row r="180">
@@ -5462,19 +5462,19 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E180" t="b">
         <v>1</v>
       </c>
       <c r="F180" t="n">
-        <v>0.9968516230583191</v>
+        <v>0.9997912049293518</v>
       </c>
     </row>
     <row r="181">
@@ -5502,7 +5502,7 @@
         <v>1</v>
       </c>
       <c r="F181" t="n">
-        <v>0.9986147880554199</v>
+        <v>0.9996871948242188</v>
       </c>
     </row>
     <row r="182">
@@ -5530,7 +5530,7 @@
         <v>1</v>
       </c>
       <c r="F182" t="n">
-        <v>0.998595654964447</v>
+        <v>0.9998303651809692</v>
       </c>
     </row>
     <row r="183">
@@ -5546,19 +5546,19 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
           <t>HardwareFault</t>
         </is>
       </c>
-      <c r="D183" t="inlineStr">
-        <is>
-          <t>HardwareFault</t>
-        </is>
-      </c>
       <c r="E183" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F183" t="n">
-        <v>0.9973388314247131</v>
+        <v>0.9953181147575378</v>
       </c>
     </row>
     <row r="184">
@@ -5574,19 +5574,19 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E184" t="b">
         <v>1</v>
       </c>
       <c r="F184" t="n">
-        <v>0.9974080920219421</v>
+        <v>0.9997236132621765</v>
       </c>
     </row>
     <row r="185">
@@ -5614,7 +5614,7 @@
         <v>1</v>
       </c>
       <c r="F185" t="n">
-        <v>0.999752938747406</v>
+        <v>0.9995943903923035</v>
       </c>
     </row>
     <row r="186">
@@ -5630,7 +5630,7 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -5642,7 +5642,7 @@
         <v>0</v>
       </c>
       <c r="F186" t="n">
-        <v>0.9837913513183594</v>
+        <v>0.9995372295379639</v>
       </c>
     </row>
     <row r="187">
@@ -5670,7 +5670,7 @@
         <v>1</v>
       </c>
       <c r="F187" t="n">
-        <v>0.9993576407432556</v>
+        <v>0.9995777010917664</v>
       </c>
     </row>
     <row r="188">
@@ -5698,7 +5698,7 @@
         <v>1</v>
       </c>
       <c r="F188" t="n">
-        <v>0.9993329644203186</v>
+        <v>0.9997871518135071</v>
       </c>
     </row>
     <row r="189">
@@ -5714,19 +5714,19 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E189" t="b">
         <v>1</v>
       </c>
       <c r="F189" t="n">
-        <v>0.9974080920219421</v>
+        <v>0.9998188614845276</v>
       </c>
     </row>
     <row r="190">
@@ -5742,19 +5742,19 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E190" t="b">
         <v>1</v>
       </c>
       <c r="F190" t="n">
-        <v>0.9941078424453735</v>
+        <v>0.9995330572128296</v>
       </c>
     </row>
     <row r="191">
@@ -5782,7 +5782,7 @@
         <v>1</v>
       </c>
       <c r="F191" t="n">
-        <v>0.9996875524520874</v>
+        <v>0.9994034767150879</v>
       </c>
     </row>
     <row r="192">
@@ -5810,7 +5810,7 @@
         <v>1</v>
       </c>
       <c r="F192" t="n">
-        <v>0.9978861212730408</v>
+        <v>0.9984777569770813</v>
       </c>
     </row>
     <row r="193">
@@ -5838,7 +5838,7 @@
         <v>1</v>
       </c>
       <c r="F193" t="n">
-        <v>0.999171257019043</v>
+        <v>0.9995585083961487</v>
       </c>
     </row>
     <row r="194">
@@ -5854,19 +5854,19 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E194" t="b">
         <v>1</v>
       </c>
       <c r="F194" t="n">
-        <v>0.9976167678833008</v>
+        <v>0.9831657409667969</v>
       </c>
     </row>
     <row r="195">
@@ -5882,19 +5882,19 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E195" t="b">
         <v>1</v>
       </c>
       <c r="F195" t="n">
-        <v>0.9983610510826111</v>
+        <v>0.9981709718704224</v>
       </c>
     </row>
     <row r="196">
@@ -5922,7 +5922,7 @@
         <v>1</v>
       </c>
       <c r="F196" t="n">
-        <v>0.9995982050895691</v>
+        <v>0.9995792508125305</v>
       </c>
     </row>
     <row r="197">
@@ -5950,7 +5950,7 @@
         <v>1</v>
       </c>
       <c r="F197" t="n">
-        <v>0.9991160035133362</v>
+        <v>0.9995749592781067</v>
       </c>
     </row>
     <row r="198">
@@ -5966,19 +5966,19 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E198" t="b">
         <v>1</v>
       </c>
       <c r="F198" t="n">
-        <v>0.9992819428443909</v>
+        <v>0.9969303011894226</v>
       </c>
     </row>
     <row r="199">
@@ -5994,19 +5994,19 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E199" t="b">
         <v>0</v>
       </c>
       <c r="F199" t="n">
-        <v>0.3240545988082886</v>
+        <v>0.9963654279708862</v>
       </c>
     </row>
     <row r="200">
@@ -6034,7 +6034,7 @@
         <v>1</v>
       </c>
       <c r="F200" t="n">
-        <v>0.9994276165962219</v>
+        <v>0.9994655251502991</v>
       </c>
     </row>
     <row r="201">
@@ -6050,19 +6050,19 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E201" t="b">
         <v>1</v>
       </c>
       <c r="F201" t="n">
-        <v>0.9755350947380066</v>
+        <v>0.9996141195297241</v>
       </c>
     </row>
     <row r="202">
@@ -6078,19 +6078,19 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E202" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F202" t="n">
-        <v>0.99958735704422</v>
+        <v>0.9624195694923401</v>
       </c>
     </row>
     <row r="203">
@@ -6106,7 +6106,7 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
@@ -6115,10 +6115,10 @@
         </is>
       </c>
       <c r="E203" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F203" t="n">
-        <v>0.998505711555481</v>
+        <v>0.9995496869087219</v>
       </c>
     </row>
     <row r="204">
@@ -6134,19 +6134,19 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="E204" t="b">
         <v>1</v>
       </c>
       <c r="F204" t="n">
-        <v>0.9827749133110046</v>
+        <v>0.9843137264251709</v>
       </c>
     </row>
     <row r="205">
@@ -6174,7 +6174,7 @@
         <v>1</v>
       </c>
       <c r="F205" t="n">
-        <v>0.9990283250808716</v>
+        <v>0.9998646974563599</v>
       </c>
     </row>
     <row r="206">
@@ -6190,19 +6190,19 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E206" t="b">
         <v>1</v>
       </c>
       <c r="F206" t="n">
-        <v>0.9925597906112671</v>
+        <v>0.9982605576515198</v>
       </c>
     </row>
     <row r="207">
@@ -6223,14 +6223,14 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E207" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F207" t="n">
-        <v>0.9193708300590515</v>
+        <v>0.9975476861000061</v>
       </c>
     </row>
     <row r="208">
@@ -6246,19 +6246,19 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E208" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F208" t="n">
-        <v>0.9997261166572571</v>
+        <v>0.7455297708511353</v>
       </c>
     </row>
     <row r="209">
@@ -6286,7 +6286,7 @@
         <v>1</v>
       </c>
       <c r="F209" t="n">
-        <v>0.9996664524078369</v>
+        <v>0.9997920393943787</v>
       </c>
     </row>
     <row r="210">
@@ -6302,19 +6302,19 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E210" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F210" t="n">
-        <v>0.9894742369651794</v>
+        <v>0.9918420314788818</v>
       </c>
     </row>
   </sheetData>
